--- a/passwords.xlsx
+++ b/passwords.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-26850" yWindow="1950" windowWidth="21600" windowHeight="11325" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -414,8 +415,8 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -440,34 +441,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>deleteme</t>
+          <t>mywebsite</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>wasds</t>
+          <t>cat44</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sdsddd</t>
+          <t>hIHT66uI7(P7</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>keemesafe</t>
+          <t>google</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dasd</t>
+          <t>cat3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>asdasd</t>
+          <t>?ty#p3MB*k3uqXE</t>
         </is>
       </c>
     </row>
